--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>quack-bom</t>
   </si>
@@ -133,13 +133,13 @@
     <t>C17634</t>
   </si>
   <si>
-    <t>120Ω ±1% 1/8W</t>
+    <t>150Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R2 R3 R4</t>
   </si>
   <si>
-    <t>C17437</t>
+    <t>C17471</t>
   </si>
   <si>
     <t>100NF 50V</t>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>C17414</t>
+  </si>
+  <si>
+    <t>Bead 0805</t>
+  </si>
+  <si>
+    <t>FB1 FB2 FB3 FB4 FB5 FB6 FB7 FB8 FB9 FB10</t>
+  </si>
+  <si>
+    <t>C1017</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1446,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1654,6 +1663,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s" s="9">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -40,7 +40,7 @@
     <t>C193707</t>
   </si>
   <si>
-    <t>TXB0108PWR</t>
+    <t>TXS0108EPWR</t>
   </si>
   <si>
     <t>IC2</t>
@@ -49,7 +49,7 @@
     <t>TSSOP-20_4.4x6.5x0.65P</t>
   </si>
   <si>
-    <t>C53406</t>
+    <t>C17206</t>
   </si>
   <si>
     <t>10uF 25V</t>
@@ -124,22 +124,22 @@
     <t>C2297</t>
   </si>
   <si>
-    <t>33Ω ±1% 1/8W</t>
+    <t>68Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>C17634</t>
-  </si>
-  <si>
-    <t>150Ω ±1% 1/8W</t>
+    <t>C17802</t>
+  </si>
+  <si>
+    <t>270Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R2 R3 R4</t>
   </si>
   <si>
-    <t>C17471</t>
+    <t>C17590</t>
   </si>
   <si>
     <t>100NF 50V</t>

--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>quack-bom</t>
   </si>
@@ -40,16 +40,16 @@
     <t>C193707</t>
   </si>
   <si>
-    <t>TXS0108EPWR</t>
+    <t>74LVC4245APWR</t>
   </si>
   <si>
     <t>IC2</t>
   </si>
   <si>
-    <t>TSSOP-20_4.4x6.5x0.65P</t>
-  </si>
-  <si>
-    <t>C17206</t>
+    <t>TSSOP-24_4.4x7.8x0.65P</t>
+  </si>
+  <si>
+    <t>C7859</t>
   </si>
   <si>
     <t>10uF 25V</t>
@@ -70,7 +70,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>CASE-B_3528</t>
+    <t>3528</t>
   </si>
   <si>
     <t>C16133</t>
@@ -88,6 +88,18 @@
     <t>C6186</t>
   </si>
   <si>
+    <t>74LVC2T45DCURG4</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>VSSOP-8_2.0x2.3x0.5P</t>
+  </si>
+  <si>
+    <t>C139382</t>
+  </si>
+  <si>
     <t>Blue LED</t>
   </si>
   <si>
@@ -124,28 +136,28 @@
     <t>C2297</t>
   </si>
   <si>
-    <t>68Ω ±1% 1/8W</t>
+    <t>82Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>C17802</t>
-  </si>
-  <si>
-    <t>270Ω ±1% 1/8W</t>
+    <t>C17841</t>
+  </si>
+  <si>
+    <t>330Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R2 R3 R4</t>
   </si>
   <si>
-    <t>C17590</t>
+    <t>C17630</t>
   </si>
   <si>
     <t>100NF 50V</t>
   </si>
   <si>
-    <t>C4 C5</t>
+    <t>C4 C5 C6 C7 C8 C9</t>
   </si>
   <si>
     <t>C49678</t>
@@ -1446,7 +1458,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1559,122 +1571,136 @@
         <v>26</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D9" t="s" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D10" t="s" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D11" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D12" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D13" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D14" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D15" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s" s="9">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>quack-bom</t>
   </si>
@@ -136,6 +136,18 @@
     <t>C2297</t>
   </si>
   <si>
+    <t xml:space="preserve">MOFSET P–Channel </t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>C8492</t>
+  </si>
+  <si>
     <t>82Ω ±1% 1/8W</t>
   </si>
   <si>
@@ -152,6 +164,15 @@
   </si>
   <si>
     <t>C17630</t>
+  </si>
+  <si>
+    <t>470Ω ±1% 1/8W</t>
+  </si>
+  <si>
+    <t>R6 R7</t>
+  </si>
+  <si>
+    <t>C17710</t>
   </si>
   <si>
     <t>100NF 50V</t>
@@ -1458,7 +1479,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1641,66 +1662,94 @@
         <v>42</v>
       </c>
       <c r="C13" t="s" s="9">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D14" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D15" t="s" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D16" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="9">
         <v>15</v>
       </c>
       <c r="D17" t="s" s="9">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s" s="9">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -148,28 +148,28 @@
     <t>C8492</t>
   </si>
   <si>
-    <t>82Ω ±1% 1/8W</t>
+    <t>22Ω ±1% 1/8W</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C17561</t>
+  </si>
+  <si>
+    <t>150Ω ±1% 1/8W</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>C17841</t>
-  </si>
-  <si>
-    <t>330Ω ±1% 1/8W</t>
-  </si>
-  <si>
-    <t>R2 R3 R4</t>
-  </si>
-  <si>
-    <t>C17630</t>
+    <t>C17471</t>
   </si>
   <si>
     <t>470Ω ±1% 1/8W</t>
   </si>
   <si>
-    <t>R6 R7</t>
+    <t>R2 R3 R4 R6 R7</t>
   </si>
   <si>
     <t>C17710</t>

--- a/EDA/SMT/quack-bom.xlsx
+++ b/EDA/SMT/quack-bom.xlsx
@@ -157,22 +157,22 @@
     <t>C17561</t>
   </si>
   <si>
-    <t>150Ω ±1% 1/8W</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>C17471</t>
-  </si>
-  <si>
     <t>470Ω ±1% 1/8W</t>
   </si>
   <si>
-    <t>R2 R3 R4 R6 R7</t>
+    <t>R1 R2 R3 R6 R7</t>
   </si>
   <si>
     <t>C17710</t>
+  </si>
+  <si>
+    <t>1.2kΩ ±1% 1/8W</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>C17379</t>
   </si>
   <si>
     <t>100NF 50V</t>
